--- a/深圳签订外贸合同数据预测/深圳签订外贸合同项数数据1990~2023.xlsx
+++ b/深圳签订外贸合同数据预测/深圳签订外贸合同项数数据1990~2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\python实操\NeZ-Data\datas\深圳签订外贸合同数据预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\python实操\NeZ-Data\datas\ARIMA-TEST\深圳签订外贸合同数据预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE82BFD-BF41-40EB-9FEA-5688B5377176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD09F636-0B98-4DAA-BF23-132F1B94E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9D3BBA89-098B-400B-B091-1DFFBAADE688}"/>
   </bookViews>
@@ -35,51 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">新加坡 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">韩国 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">日本 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">泰国 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">澳大利亚 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">马来西亚 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">美国 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">加拿大 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">德国 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">法国 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">瑞士 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,6 +49,39 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>瑞士</t>
   </si>
 </sst>
 </file>
@@ -502,7 +491,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -522,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -531,46 +520,46 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">

--- a/深圳签订外贸合同数据预测/深圳签订外贸合同项数数据1990~2023.xlsx
+++ b/深圳签订外贸合同数据预测/深圳签订外贸合同项数数据1990~2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\python实操\NeZ-Data\datas\ARIMA-TEST\深圳签订外贸合同数据预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD09F636-0B98-4DAA-BF23-132F1B94E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE889B4-81C1-4186-BFC3-51D876357009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9D3BBA89-098B-400B-B091-1DFFBAADE688}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新加坡</t>
   </si>
   <si>
@@ -83,12 +79,19 @@
   <si>
     <t>瑞士</t>
   </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +183,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,12 +507,12 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -509,9 +525,9 @@
     <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -520,40 +536,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -562,9 +578,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1990</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>32874</v>
       </c>
       <c r="B2" s="1">
         <v>699</v>
@@ -615,9 +631,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1991</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>33239</v>
       </c>
       <c r="B3" s="1">
         <v>885</v>
@@ -668,9 +684,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1992</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>33604</v>
       </c>
       <c r="B4" s="1">
         <v>1330</v>
@@ -721,9 +737,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1993</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>33970</v>
       </c>
       <c r="B5" s="1">
         <v>2834</v>
@@ -774,9 +790,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1994</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>34335</v>
       </c>
       <c r="B6" s="1">
         <v>1885</v>
@@ -827,9 +843,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1995</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>34700</v>
       </c>
       <c r="B7" s="1">
         <v>1288</v>
@@ -880,9 +896,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1996</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>35065</v>
       </c>
       <c r="B8" s="1">
         <v>760</v>
@@ -933,9 +949,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1997</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>35431</v>
       </c>
       <c r="B9" s="1">
         <v>1576</v>
@@ -986,9 +1002,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1998</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>35796</v>
       </c>
       <c r="B10" s="1">
         <v>1614</v>
@@ -1039,9 +1055,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1999</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>36161</v>
       </c>
       <c r="B11" s="1">
         <v>1355</v>
@@ -1092,9 +1108,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2000</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>36526</v>
       </c>
       <c r="B12" s="1">
         <v>1474</v>
@@ -1145,9 +1161,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2001</v>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>36892</v>
       </c>
       <c r="B13" s="1">
         <v>1288</v>
@@ -1198,9 +1214,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2002</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>37257</v>
       </c>
       <c r="B14" s="1">
         <v>1498</v>
@@ -1251,9 +1267,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>2003</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>37622</v>
       </c>
       <c r="B15" s="1">
         <v>1852</v>
@@ -1304,9 +1320,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>2004</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>37987</v>
       </c>
       <c r="B16" s="1">
         <v>1959</v>
@@ -1357,9 +1373,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>2005</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>38353</v>
       </c>
       <c r="B17" s="1">
         <v>1974</v>
@@ -1410,9 +1426,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>2006</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>38718</v>
       </c>
       <c r="B18" s="1">
         <v>2233</v>
@@ -1463,9 +1479,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2007</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>39083</v>
       </c>
       <c r="B19" s="1">
         <v>3427</v>
@@ -1516,9 +1532,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>2008</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>39448</v>
       </c>
       <c r="B20" s="1">
         <v>2582</v>
@@ -1569,9 +1585,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2009</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>39814</v>
       </c>
       <c r="B21" s="1">
         <v>1142</v>
@@ -1622,9 +1638,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>2010</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>40179</v>
       </c>
       <c r="B22" s="1">
         <v>1472</v>
@@ -1675,9 +1691,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2011</v>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>40544</v>
       </c>
       <c r="B23" s="1">
         <v>1985</v>
@@ -1728,9 +1744,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>2012</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>40909</v>
       </c>
       <c r="B24" s="1">
         <v>1988</v>
@@ -1781,9 +1797,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>2013</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>41275</v>
       </c>
       <c r="B25" s="1">
         <v>1611</v>
@@ -1834,9 +1850,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2014</v>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>41640</v>
       </c>
       <c r="B26" s="1">
         <v>2011</v>
@@ -1887,9 +1903,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>2015</v>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>42005</v>
       </c>
       <c r="B27" s="1">
         <v>2673</v>
@@ -1940,9 +1956,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>2016</v>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>42370</v>
       </c>
       <c r="B28" s="1">
         <v>3365</v>
@@ -1993,9 +2009,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>2017</v>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>42736</v>
       </c>
       <c r="B29" s="1">
         <v>5717</v>
@@ -2046,9 +2062,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>2018</v>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>43101</v>
       </c>
       <c r="B30" s="1">
         <v>13703</v>
@@ -2099,9 +2115,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>2019</v>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>43466</v>
       </c>
       <c r="B31" s="1">
         <v>4622</v>
@@ -2152,9 +2168,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>2020</v>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>43831</v>
       </c>
       <c r="B32" s="1">
         <v>2985</v>
@@ -2205,9 +2221,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>2021</v>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>44197</v>
       </c>
       <c r="B33" s="1">
         <v>3654</v>
@@ -2258,9 +2274,9 @@
         <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>2022</v>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>44562</v>
       </c>
       <c r="B34" s="1">
         <v>2730</v>
@@ -2311,9 +2327,9 @@
         <v>721</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>2023</v>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>44927</v>
       </c>
       <c r="B35" s="1">
         <v>5315</v>
